--- a/base_data/personal_information.xlsx
+++ b/base_data/personal_information.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\python\base_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A84DA55-CA9C-4262-BE65-4F1B2FC7A992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232C9C81-FC87-4D33-B695-226190AB122D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,9 +156,6 @@
     <t>632524197907102603</t>
   </si>
   <si>
-    <t>33121198006216613</t>
-  </si>
-  <si>
     <t>500156198307145418</t>
   </si>
   <si>
@@ -166,6 +163,9 @@
   </si>
   <si>
     <t>230224199102246315</t>
+  </si>
+  <si>
+    <t>331121198006216613</t>
   </si>
 </sst>
 </file>
@@ -487,7 +487,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -687,7 +687,7 @@
         <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C12">
         <v>44</v>
@@ -704,7 +704,7 @@
         <v>29</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13">
         <v>41</v>
@@ -721,7 +721,7 @@
         <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14">
         <v>67</v>
@@ -738,7 +738,7 @@
         <v>31</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15">
         <v>33</v>
